--- a/app/download_dir/system_files/парфюм_по наборам.xlsx
+++ b/app/download_dir/system_files/парфюм_по наборам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="649">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">ЖЕСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
@@ -615,7 +615,7 @@
     <t xml:space="preserve">ОЛОВО</t>
   </si>
   <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННОЕ КОРОЛЕВСТВО</t>
   </si>
   <si>
     <t xml:space="preserve">ОБЁРНУТО В ПЛЁНКУ</t>
@@ -1083,27 +1083,24 @@
     <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">КОСТА-РИКА</t>
   </si>
   <si>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФЛОУПАК</t>
   </si>
   <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
-  </si>
-  <si>
     <t xml:space="preserve">КУБА</t>
   </si>
   <si>
+    <t xml:space="preserve">КУВЕЙТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФУТЛЯР</t>
   </si>
   <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
@@ -1113,12 +1110,12 @@
     <t xml:space="preserve">ЛЕСОТО</t>
   </si>
   <si>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ЯЧЕИСТАЯ УПАКОВКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ЛИВАН</t>
   </si>
   <si>
@@ -1191,12 +1188,12 @@
     <t xml:space="preserve">МОНГОЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">МОНТСЕРРАТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ДРЕВЕСИНА ТВЕРДАЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">МОНТСЕРРАТ</t>
-  </si>
-  <si>
     <t xml:space="preserve">МЬЯНМА</t>
   </si>
   <si>
@@ -1215,12 +1212,12 @@
     <t xml:space="preserve">НИГЕРИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ИСКУССТВЕННАЯ ОБОЛОЧКА</t>
   </si>
   <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
-  </si>
-  <si>
     <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
   </si>
   <si>
@@ -1239,7 +1236,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОАЭ</t>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -1260,12 +1257,12 @@
     <t xml:space="preserve">ОСТРОВА КУКА</t>
   </si>
   <si>
+    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
+  </si>
+  <si>
     <t xml:space="preserve">НАТУРАЛЬНАЯ ОБОЛОЧКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
-  </si>
-  <si>
     <t xml:space="preserve">ПАКИСТАН</t>
   </si>
   <si>
@@ -1299,7 +1296,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -1371,12 +1368,12 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
   </si>
   <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
   </si>
   <si>
@@ -1461,25 +1458,25 @@
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
+  </si>
+  <si>
     <t xml:space="preserve">Номер Регламента/стандарта</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
+    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
     <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
@@ -2635,7 +2632,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2727,13 +2724,6 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2860,7 +2850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2985,11 +2975,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2997,11 +2983,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3009,7 +2995,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3100,7 +3086,7 @@
       <selection pane="topLeft" activeCell="L1638" activeCellId="0" sqref="L1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26661,11 +26647,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -27111,7 +27097,7 @@
       <c r="G25" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="28" t="s">
         <v>143</v>
       </c>
     </row>
@@ -29025,7 +29011,7 @@
       <c r="B169" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="I169" s="31" t="s">
+      <c r="I169" s="28" t="s">
         <v>426</v>
       </c>
     </row>
@@ -29444,12 +29430,12 @@
         <v>335</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="28" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29683,9 +29669,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="28" t="s">
-        <v>504</v>
-      </c>
+      <c r="I243" s="28"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="28"/>
@@ -29721,1170 +29705,1170 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="33" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>508</v>
+      <c r="B3" s="35" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="n">
+        <v>6106</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
-        <v>6106</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>511</v>
+      <c r="B6" s="36" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>512</v>
+      <c r="B7" s="36" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>513</v>
+      <c r="B8" s="36" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>514</v>
+      <c r="B9" s="36" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>515</v>
+      <c r="B10" s="36" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="n">
+        <v>6201</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>6201</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>518</v>
+      <c r="B13" s="35" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>519</v>
+      <c r="B14" s="35" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>520</v>
+      <c r="B15" s="35" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>521</v>
+      <c r="B16" s="35" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>522</v>
+      <c r="B17" s="35" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>523</v>
+      <c r="B18" s="35" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>524</v>
+      <c r="B19" s="35" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>525</v>
+      <c r="B20" s="35" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>526</v>
+      <c r="B21" s="35" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>527</v>
+      <c r="B22" s="35" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="33" t="n">
+        <v>6302</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
-        <v>6302</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>530</v>
+      <c r="B25" s="35" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>531</v>
+      <c r="B26" s="35" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>532</v>
+      <c r="B27" s="35" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>533</v>
+      <c r="B28" s="35" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>534</v>
+      <c r="B29" s="35" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>535</v>
+      <c r="B30" s="35" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>536</v>
+      <c r="B31" s="35" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>537</v>
+      <c r="B32" s="35" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>538</v>
+      <c r="B33" s="35" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="36" t="s">
-        <v>539</v>
+      <c r="B34" s="35" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>540</v>
+      <c r="B35" s="35" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>541</v>
+      <c r="B36" s="35" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>542</v>
+      <c r="B37" s="35" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>543</v>
+      <c r="B38" s="35" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>544</v>
+      <c r="B39" s="35" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>545</v>
+      <c r="B40" s="35" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>546</v>
+      <c r="B41" s="35" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>547</v>
+      <c r="B42" s="35" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>548</v>
+      <c r="B43" s="35" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>549</v>
+      <c r="B44" s="35" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>550</v>
+      <c r="B45" s="35" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="36" t="s">
-        <v>551</v>
+      <c r="B46" s="35" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="36" t="s">
-        <v>552</v>
+      <c r="B47" s="35" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>553</v>
+      <c r="B48" s="35" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="33" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="34" t="n">
-        <v>4303</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="36" t="s">
-        <v>556</v>
+      <c r="B51" s="35" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="36" t="s">
-        <v>557</v>
+      <c r="B52" s="35" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>558</v>
+      <c r="B53" s="35" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="36" t="s">
-        <v>559</v>
+      <c r="B54" s="35" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="36" t="s">
-        <v>560</v>
+      <c r="B55" s="35" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="36" t="s">
-        <v>561</v>
+      <c r="B56" s="35" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="33" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B58" s="37" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="n">
-        <v>3303</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="36" t="s">
-        <v>564</v>
+      <c r="B59" s="35" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="33" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B61" s="34" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="34" t="n">
-        <v>4011</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="36" t="s">
-        <v>567</v>
+      <c r="B62" s="35" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="36" t="s">
-        <v>568</v>
+      <c r="B63" s="35" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>569</v>
+      <c r="B64" s="35" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="36" t="s">
-        <v>570</v>
+      <c r="B65" s="35" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>571</v>
+      <c r="B66" s="35" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="36" t="s">
-        <v>572</v>
+      <c r="B67" s="35" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="36" t="s">
-        <v>573</v>
+      <c r="B68" s="35" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="33" t="n">
+        <v>6401</v>
+      </c>
+      <c r="B70" s="34" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34" t="n">
-        <v>6401</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="36" t="s">
-        <v>576</v>
+      <c r="B71" s="35" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="36" t="s">
-        <v>577</v>
+      <c r="B72" s="35" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>578</v>
+      <c r="B73" s="35" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="33" t="n">
+        <v>6402</v>
+      </c>
+      <c r="B75" s="34" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34" t="n">
-        <v>6402</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="36" t="s">
-        <v>581</v>
+      <c r="B76" s="35" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>582</v>
+      <c r="B77" s="35" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="36" t="s">
-        <v>583</v>
+      <c r="B78" s="35" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>584</v>
+      <c r="B79" s="35" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="36" t="s">
-        <v>585</v>
+      <c r="B80" s="35" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="36" t="s">
-        <v>586</v>
+      <c r="B81" s="35" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="36" t="s">
-        <v>587</v>
+      <c r="B82" s="35" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="36" t="s">
-        <v>588</v>
+      <c r="B83" s="35" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="36" t="s">
-        <v>589</v>
+      <c r="B84" s="35" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>590</v>
+      <c r="B85" s="35" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>591</v>
+      <c r="B86" s="35" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="36" t="s">
-        <v>592</v>
+      <c r="B87" s="35" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>593</v>
+      <c r="B88" s="35" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="36" t="s">
-        <v>594</v>
+      <c r="B89" s="35" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="33" t="n">
+        <v>6403</v>
+      </c>
+      <c r="B91" s="34" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34" t="n">
-        <v>6403</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="36" t="s">
-        <v>596</v>
+      <c r="B92" s="35" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="36" t="s">
-        <v>597</v>
+      <c r="B93" s="35" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>598</v>
+      <c r="B94" s="35" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="36" t="s">
-        <v>599</v>
+      <c r="B95" s="35" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="36" t="s">
-        <v>600</v>
+      <c r="B96" s="35" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="36" t="s">
-        <v>601</v>
+      <c r="B97" s="35" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="36" t="s">
-        <v>602</v>
+      <c r="B98" s="35" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="36" t="s">
-        <v>603</v>
+      <c r="B99" s="35" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="36" t="s">
-        <v>604</v>
+      <c r="B100" s="35" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="36" t="s">
-        <v>605</v>
+      <c r="B101" s="35" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="36" t="s">
-        <v>606</v>
+      <c r="B102" s="35" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="36" t="s">
-        <v>607</v>
+      <c r="B103" s="35" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="36" t="s">
-        <v>608</v>
+      <c r="B104" s="35" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="36" t="s">
-        <v>609</v>
+      <c r="B105" s="35" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="36" t="s">
-        <v>610</v>
+      <c r="B106" s="35" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="36" t="s">
-        <v>611</v>
+      <c r="B107" s="35" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="36" t="s">
-        <v>612</v>
+      <c r="B108" s="35" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="36" t="s">
-        <v>613</v>
+      <c r="B109" s="35" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="36" t="s">
-        <v>614</v>
+      <c r="B110" s="35" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="36" t="s">
-        <v>615</v>
+      <c r="B111" s="35" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="36" t="s">
-        <v>616</v>
+      <c r="B112" s="35" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="36" t="s">
-        <v>617</v>
+      <c r="B113" s="35" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="36" t="s">
-        <v>618</v>
+      <c r="B114" s="35" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="36" t="s">
-        <v>619</v>
+      <c r="B115" s="35" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="36" t="s">
-        <v>620</v>
+      <c r="B116" s="35" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="36" t="s">
-        <v>621</v>
+      <c r="B117" s="35" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="36" t="s">
-        <v>622</v>
+      <c r="B118" s="35" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="36" t="s">
-        <v>623</v>
+      <c r="B119" s="35" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="36" t="s">
-        <v>624</v>
+      <c r="B120" s="35" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="36" t="s">
-        <v>625</v>
+      <c r="B121" s="35" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="36" t="s">
-        <v>626</v>
+      <c r="B122" s="35" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="36" t="s">
-        <v>627</v>
+      <c r="B123" s="35" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="36" t="s">
-        <v>628</v>
+      <c r="B124" s="35" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="36" t="s">
-        <v>629</v>
+      <c r="B125" s="35" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="36" t="s">
-        <v>630</v>
+      <c r="B126" s="35" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="36" t="s">
-        <v>631</v>
+      <c r="B127" s="35" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="36" t="s">
-        <v>632</v>
+      <c r="B128" s="35" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="36" t="s">
-        <v>633</v>
+      <c r="B129" s="35" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="36" t="s">
-        <v>634</v>
+      <c r="B130" s="35" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="33" t="n">
+        <v>6404</v>
+      </c>
+      <c r="B132" s="34" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="34" t="n">
-        <v>6404</v>
-      </c>
-      <c r="B132" s="35" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="36" t="s">
-        <v>637</v>
+      <c r="B133" s="35" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="36" t="s">
-        <v>638</v>
+      <c r="B134" s="35" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="36" t="s">
-        <v>639</v>
+      <c r="B135" s="35" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="36" t="s">
-        <v>640</v>
+      <c r="B136" s="35" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="33" t="n">
+        <v>6405</v>
+      </c>
+      <c r="B138" s="34" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="34" t="n">
-        <v>6405</v>
-      </c>
-      <c r="B138" s="35" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="36" t="s">
-        <v>643</v>
+      <c r="B139" s="35" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="36" t="s">
-        <v>644</v>
+      <c r="B140" s="35" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="36" t="s">
-        <v>645</v>
+      <c r="B141" s="35" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="36" t="s">
-        <v>646</v>
+      <c r="B142" s="35" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="36" t="s">
-        <v>647</v>
+      <c r="B143" s="35" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="36" t="s">
-        <v>648</v>
+      <c r="B144" s="35" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="36" t="s">
-        <v>649</v>
+      <c r="B145" s="35" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/парфюм_по наборам.xlsx
+++ b/app/download_dir/system_files/парфюм_по наборам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="648">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">ТУРЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -201,9 +201,6 @@
     <t xml:space="preserve">АБХАЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование атрибута</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
     <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
   </si>
   <si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">АМПУЛА</t>
@@ -3083,10 +3080,10 @@
   <dimension ref="A1:Q1723"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1638" activeCellId="0" sqref="L1638"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26610,7 +26607,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7:M1723" type="list">
-      <formula1>Справочники!$J$2:$J$4</formula1>
+      <formula1>Справочники!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:F1765" type="list">
@@ -26647,11 +26644,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -26704,33 +26701,33 @@
         <v>56</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26749,82 +26746,79 @@
       <c r="I4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="F6" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26835,49 +26829,49 @@
         <v>65</v>
       </c>
       <c r="F9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="I10" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="I11" s="28" t="s">
         <v>96</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="I12" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26888,13 +26882,13 @@
         <v>54</v>
       </c>
       <c r="F13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="I13" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26902,16 +26896,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="I14" s="28" t="s">
         <v>105</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26922,13 +26916,13 @@
         <v>66</v>
       </c>
       <c r="F15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="I15" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26936,16 +26930,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="I16" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26953,16 +26947,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="I17" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26970,16 +26964,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="I18" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26987,16 +26981,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="I19" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27004,16 +26998,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="I20" s="28" t="s">
         <v>124</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27021,16 +27015,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="G21" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="I21" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27038,16 +27032,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="I22" s="28" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27055,16 +27049,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="I23" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27072,16 +27066,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="I24" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27089,16 +27083,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="G25" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="I25" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27106,16 +27100,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="I26" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27123,16 +27117,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="I27" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27140,16 +27134,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="I28" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27157,16 +27151,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="I29" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27174,16 +27168,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="I30" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27191,16 +27185,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="I31" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27208,16 +27202,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="G32" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="I32" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27225,16 +27219,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="I33" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27242,16 +27236,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="I34" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27259,16 +27253,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="I35" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27276,16 +27270,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="I36" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27293,16 +27287,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="I37" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27310,16 +27304,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="I38" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27327,16 +27321,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="I39" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27344,16 +27338,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27361,16 +27355,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="I41" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27378,16 +27372,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="I42" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27395,16 +27389,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F43" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="I43" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27412,16 +27406,16 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F44" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="I44" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27429,16 +27423,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="G45" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="I45" s="28" t="s">
         <v>204</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27446,16 +27440,16 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="I46" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27463,16 +27457,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="G47" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="I47" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27480,16 +27474,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="I48" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27497,16 +27491,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="G49" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="I49" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27514,16 +27508,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F50" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="I50" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27531,16 +27525,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="I51" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27548,16 +27542,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="I52" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27565,16 +27559,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="I53" s="28" t="s">
         <v>231</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27582,16 +27576,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="I54" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27599,16 +27593,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="I55" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27616,16 +27610,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F56" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="I56" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27633,16 +27627,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="I57" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27650,16 +27644,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F58" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="I58" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27667,16 +27661,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="I59" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27684,16 +27678,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="G60" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="I60" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27701,16 +27695,16 @@
         <v>4</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="I61" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27721,13 +27715,13 @@
         <v>44</v>
       </c>
       <c r="F62" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="I62" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27735,16 +27729,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F63" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G63" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="I63" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27752,16 +27746,16 @@
         <v>4</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="I64" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27769,16 +27763,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F65" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="I65" s="28" t="s">
         <v>269</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27786,16 +27780,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="G66" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="I66" s="28" t="s">
         <v>273</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27803,16 +27797,16 @@
         <v>4</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="G67" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="I67" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27820,16 +27814,16 @@
         <v>4</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F68" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G68" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="I68" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27837,16 +27831,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="G69" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="I69" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27854,16 +27848,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="I70" s="28" t="s">
         <v>287</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27871,14 +27865,14 @@
         <v>4</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="I71" s="28" t="s">
         <v>289</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27886,14 +27880,14 @@
         <v>4</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I72" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27901,14 +27895,14 @@
         <v>4</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I73" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27916,13 +27910,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G74" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="I74" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27930,13 +27924,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G75" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="I75" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27944,13 +27938,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="I76" s="28" t="s">
         <v>301</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27958,13 +27952,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G77" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I77" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27972,13 +27966,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G78" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I78" s="28" t="s">
         <v>305</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27986,13 +27980,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G79" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="I79" s="28" t="s">
         <v>307</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28000,13 +27994,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G80" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28014,13 +28008,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I81" s="28" t="s">
         <v>311</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28028,13 +28022,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="I82" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28042,13 +28036,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="G83" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="I83" s="28" t="s">
         <v>317</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28056,13 +28050,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G84" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I84" s="28" t="s">
         <v>319</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28070,13 +28064,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G85" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="I85" s="28" t="s">
         <v>321</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28084,13 +28078,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G86" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="I86" s="28" t="s">
         <v>323</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28098,13 +28092,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="G87" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="I87" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28112,13 +28106,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G88" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="I88" s="28" t="s">
         <v>328</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28126,13 +28120,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="I89" s="28" t="s">
         <v>330</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28140,13 +28134,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G90" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="I90" s="28" t="s">
         <v>333</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28154,13 +28148,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G91" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I91" s="28" t="s">
         <v>335</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28168,13 +28162,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>66</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28182,13 +28176,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I93" s="28" t="s">
         <v>338</v>
-      </c>
-      <c r="G93" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28196,10 +28190,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="I94" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28207,10 +28201,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28218,10 +28212,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="I96" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28229,10 +28223,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28240,10 +28234,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="I98" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28251,10 +28245,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="I99" s="28" t="s">
         <v>348</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28262,10 +28256,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="I100" s="28" t="s">
         <v>350</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28273,10 +28267,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28284,10 +28278,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="I102" s="28" t="s">
         <v>353</v>
-      </c>
-      <c r="I102" s="28" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28295,10 +28289,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28306,10 +28300,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="I104" s="28" t="s">
         <v>356</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28317,10 +28311,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28328,10 +28322,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28339,10 +28333,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28350,10 +28344,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="I108" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28361,20 +28355,20 @@
         <v>4</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I110" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I111" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28385,7 +28379,7 @@
         <v>54</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28396,7 +28390,7 @@
         <v>66</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28404,10 +28398,10 @@
         <v>5</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28418,7 +28412,7 @@
         <v>55</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28426,10 +28420,10 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28440,7 +28434,7 @@
         <v>67</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28448,10 +28442,10 @@
         <v>5</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28462,7 +28456,7 @@
         <v>45</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28470,10 +28464,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28481,10 +28475,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28492,10 +28486,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28503,10 +28497,10 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I123" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28514,10 +28508,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I124" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28525,10 +28519,10 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I125" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28536,10 +28530,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I126" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28547,10 +28541,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I127" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28558,10 +28552,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28569,10 +28563,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I129" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28580,10 +28574,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28591,10 +28585,10 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28602,10 +28596,10 @@
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28613,10 +28607,10 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="I133" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="I133" s="28" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28624,10 +28618,10 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I134" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28635,10 +28629,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I135" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28646,10 +28640,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I136" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28657,10 +28651,10 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28668,10 +28662,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I138" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28679,10 +28673,10 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I139" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28690,10 +28684,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="I140" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="I140" s="28" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28701,10 +28695,10 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I141" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28712,10 +28706,10 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I142" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28723,10 +28717,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I143" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28734,10 +28728,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I144" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28745,10 +28739,10 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I145" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28756,10 +28750,10 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I146" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28767,10 +28761,10 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28778,10 +28772,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I148" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28789,10 +28783,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28800,10 +28794,10 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28811,10 +28805,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I151" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28822,10 +28816,10 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28833,10 +28827,10 @@
         <v>5</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28844,10 +28838,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="I154" s="28" t="s">
         <v>410</v>
-      </c>
-      <c r="I154" s="28" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28855,10 +28849,10 @@
         <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28866,10 +28860,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28877,10 +28871,10 @@
         <v>5</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28888,10 +28882,10 @@
         <v>5</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28899,10 +28893,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I159" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28910,10 +28904,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I160" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28921,10 +28915,10 @@
         <v>5</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I161" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28932,10 +28926,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I162" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28943,10 +28937,10 @@
         <v>5</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I163" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28954,10 +28948,10 @@
         <v>5</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I164" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28965,10 +28959,10 @@
         <v>5</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I165" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28976,10 +28970,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28987,10 +28981,10 @@
         <v>5</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28998,10 +28992,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29009,10 +29003,10 @@
         <v>5</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I169" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29020,10 +29014,10 @@
         <v>5</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29031,10 +29025,10 @@
         <v>5</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29042,10 +29036,10 @@
         <v>5</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29053,10 +29047,10 @@
         <v>5</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29064,10 +29058,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29075,10 +29069,10 @@
         <v>5</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I175" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29086,10 +29080,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I176" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29097,10 +29091,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29108,10 +29102,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29119,10 +29113,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29130,10 +29124,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I180" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29141,10 +29135,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I181" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29152,10 +29146,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I182" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29163,10 +29157,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I183" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29174,10 +29168,10 @@
         <v>5</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I184" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29185,10 +29179,10 @@
         <v>5</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29196,10 +29190,10 @@
         <v>5</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29207,10 +29201,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29218,10 +29212,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29229,10 +29223,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29240,10 +29234,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="I190" s="28" t="s">
         <v>447</v>
-      </c>
-      <c r="I190" s="28" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29251,10 +29245,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29262,10 +29256,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29273,10 +29267,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29284,10 +29278,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29295,10 +29289,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29306,10 +29300,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29317,10 +29311,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29328,10 +29322,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29339,10 +29333,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29350,10 +29344,10 @@
         <v>5</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29361,10 +29355,10 @@
         <v>5</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29372,10 +29366,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29383,10 +29377,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29394,10 +29388,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29405,10 +29399,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29416,10 +29410,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29427,7 +29421,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I207" s="28" t="s">
         <v>48</v>
@@ -29435,12 +29429,12 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29451,7 +29445,7 @@
         <v>46</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29462,7 +29456,7 @@
         <v>68</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29470,10 +29464,10 @@
         <v>6</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29481,10 +29475,10 @@
         <v>6</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29492,10 +29486,10 @@
         <v>6</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29503,10 +29497,10 @@
         <v>6</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29514,158 +29508,158 @@
         <v>6</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I219" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="I220" s="28" t="s">
         <v>478</v>
-      </c>
-      <c r="I220" s="28" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B221" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="I221" s="28" t="s">
         <v>480</v>
-      </c>
-      <c r="I221" s="28" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B222" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="I222" s="28" t="s">
         <v>482</v>
-      </c>
-      <c r="I222" s="28" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I240" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I241" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I242" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29705,7 +29699,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
@@ -29713,10 +29707,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>504</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29724,7 +29718,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29732,7 +29726,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29740,7 +29734,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29748,7 +29742,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29756,7 +29750,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29764,7 +29758,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29772,7 +29766,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29780,7 +29774,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29788,7 +29782,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29796,7 +29790,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29804,7 +29798,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29812,7 +29806,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29820,7 +29814,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29828,7 +29822,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29836,7 +29830,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29844,7 +29838,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29852,7 +29846,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29860,7 +29854,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29868,7 +29862,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29876,7 +29870,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29884,7 +29878,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29892,7 +29886,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29900,7 +29894,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29908,7 +29902,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29916,7 +29910,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29924,7 +29918,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29932,7 +29926,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29940,7 +29934,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29948,7 +29942,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29956,7 +29950,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29964,7 +29958,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29972,7 +29966,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29980,7 +29974,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29988,7 +29982,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29996,7 +29990,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30004,7 +29998,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30012,7 +30006,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30020,7 +30014,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30028,7 +30022,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30036,7 +30030,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30044,7 +30038,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30052,7 +30046,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30060,7 +30054,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30068,7 +30062,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30076,7 +30070,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30084,7 +30078,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30092,7 +30086,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30100,7 +30094,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30108,7 +30102,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30116,7 +30110,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30124,7 +30118,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30132,7 +30126,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30140,7 +30134,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30148,7 +30142,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30156,7 +30150,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30164,7 +30158,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30172,7 +30166,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30180,7 +30174,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30188,7 +30182,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30196,7 +30190,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30204,7 +30198,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30212,7 +30206,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30220,7 +30214,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30228,7 +30222,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30236,7 +30230,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30244,7 +30238,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30252,7 +30246,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30260,7 +30254,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30268,7 +30262,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30276,7 +30270,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30284,7 +30278,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30292,7 +30286,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30300,7 +30294,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30308,7 +30302,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30316,7 +30310,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30324,7 +30318,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30332,7 +30326,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30340,7 +30334,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30348,7 +30342,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30356,7 +30350,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30364,7 +30358,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30372,7 +30366,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30380,7 +30374,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30388,7 +30382,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30396,7 +30390,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30404,7 +30398,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30412,7 +30406,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30420,7 +30414,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30428,7 +30422,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30436,7 +30430,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30444,7 +30438,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30452,7 +30446,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30460,7 +30454,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30468,7 +30462,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30476,7 +30470,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30484,7 +30478,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30492,7 +30486,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30500,7 +30494,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30508,7 +30502,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30516,7 +30510,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30524,7 +30518,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30532,7 +30526,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30540,7 +30534,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30548,7 +30542,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30556,7 +30550,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30564,7 +30558,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30572,7 +30566,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30580,7 +30574,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30588,7 +30582,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30596,7 +30590,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30604,7 +30598,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30612,7 +30606,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30620,7 +30614,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30628,7 +30622,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30636,7 +30630,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30644,7 +30638,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30652,7 +30646,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30660,7 +30654,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30668,7 +30662,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30676,7 +30670,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30684,7 +30678,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30692,7 +30686,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30700,7 +30694,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30708,7 +30702,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30716,7 +30710,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30724,7 +30718,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30732,7 +30726,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30740,7 +30734,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30748,7 +30742,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30756,7 +30750,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30764,7 +30758,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30772,7 +30766,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30780,7 +30774,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30788,7 +30782,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30796,7 +30790,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30804,7 +30798,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30812,7 +30806,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30820,7 +30814,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30828,7 +30822,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30836,7 +30830,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30844,7 +30838,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30852,7 +30846,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30860,7 +30854,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30868,7 +30862,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
